--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>Day</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,39 +198,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9 ~ 21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 ~ 16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Florence - Pisa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>9 ~ 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 ~ 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 ~ 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://weather.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 ~ 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 ~ 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 ~ 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降雨機率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 ~ 21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 ~ 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ~ 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Florence - Napoli - Pompei - Sorrento</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9 ~ 19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 ~ 19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 ~ 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 ~ 18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://weather.com</t>
+    <t>20%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -630,10 +658,10 @@
     <col min="4" max="4" width="39" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
+    <col min="7" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,11 +680,14 @@
       <c r="G1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -676,7 +707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -696,16 +727,19 @@
         <v>43</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -725,10 +759,13 @@
         <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -748,10 +785,13 @@
         <v>27</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -768,10 +808,13 @@
         <v>11</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -791,10 +834,13 @@
         <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -805,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -814,10 +860,13 @@
         <v>33</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -828,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -837,10 +886,13 @@
         <v>14</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -860,13 +912,13 @@
         <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -886,10 +938,10 @@
         <v>37</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -906,10 +958,10 @@
         <v>38</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -929,10 +981,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -949,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -969,10 +1021,10 @@
         <v>9</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -992,7 +1044,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H1" r:id="rId1"/>
+    <hyperlink ref="I1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
